--- a/legislator/property/output/normal/葉宜津_2013-11-08_財產申報表_tmpabd41.xlsx
+++ b/legislator/property/output/normal/葉宜津_2013-11-08_財產申報表_tmpabd41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="138">
   <si>
     <t>土地坐落</t>
   </si>
@@ -310,6 +310,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>國票金控</t>
   </si>
   <si>
@@ -317,6 +326,9 @@
   </si>
   <si>
     <t>安碩A50中國</t>
+  </si>
+  <si>
+    <t>2013-11-08</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1816,13 +1828,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>90</v>
       </c>
@@ -1841,13 +1853,22 @@
       <c r="G1" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
@@ -1864,13 +1885,22 @@
       <c r="G2" s="2">
         <v>4830</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -1887,13 +1917,22 @@
       <c r="G3" s="2">
         <v>1220856.78</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -1909,6 +1948,15 @@
       </c>
       <c r="G4" s="2">
         <v>211837.7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2">
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -1926,19 +1974,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>68</v>
@@ -1949,7 +1997,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
@@ -1961,7 +2009,7 @@
         <v>20.76</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G2" s="2">
         <v>742139.18</v>
@@ -1972,22 +2020,22 @@
         <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2008,19 +2056,19 @@
         <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2028,22 +2076,22 @@
         <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2051,22 +2099,22 @@
         <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2074,22 +2122,22 @@
         <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E4" s="2">
         <v>10000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2107,22 +2155,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2133,19 +2181,19 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E2" s="2">
         <v>14740000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉宜津_2013-11-08_財產申報表_tmpabd41.xlsx
+++ b/legislator/property/output/normal/葉宜津_2013-11-08_財產申報表_tmpabd41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="140">
   <si>
     <t>土地坐落</t>
   </si>
@@ -310,6 +310,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -326,6 +329,9 @@
   </si>
   <si>
     <t>安碩A50中國</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2013-11-08</t>
@@ -1828,13 +1834,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>90</v>
       </c>
@@ -1862,13 +1868,16 @@
       <c r="J1" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
@@ -1886,21 +1895,24 @@
         <v>4830</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>855</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -1918,21 +1930,24 @@
         <v>1220856.78</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>855</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -1950,12 +1965,15 @@
         <v>211837.7</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>855</v>
       </c>
     </row>
@@ -1974,19 +1992,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>68</v>
@@ -1997,7 +2015,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
@@ -2009,7 +2027,7 @@
         <v>20.76</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2">
         <v>742139.18</v>
@@ -2020,22 +2038,22 @@
         <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2056,19 +2074,19 @@
         <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2076,22 +2094,22 @@
         <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2099,22 +2117,22 @@
         <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2122,22 +2140,22 @@
         <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E4" s="2">
         <v>10000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2155,22 +2173,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2181,19 +2199,19 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E2" s="2">
         <v>14740000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉宜津_2013-11-08_財產申報表_tmpabd41.xlsx
+++ b/legislator/property/output/normal/葉宜津_2013-11-08_財產申報表_tmpabd41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="145">
   <si>
     <t>土地坐落</t>
   </si>
@@ -313,6 +313,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -322,6 +325,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>國票金控</t>
   </si>
   <si>
@@ -334,7 +343,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-11-08</t>
+  </si>
+  <si>
+    <t>tmpabd41</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1834,13 +1849,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>90</v>
       </c>
@@ -1871,13 +1886,22 @@
       <c r="K1" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
@@ -1895,24 +1919,33 @@
         <v>4830</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>855</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -1930,24 +1963,33 @@
         <v>1220856.78</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>855</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -1965,16 +2007,25 @@
         <v>211837.7</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>855</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" s="2">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1992,19 +2043,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>68</v>
@@ -2015,7 +2066,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
@@ -2027,7 +2078,7 @@
         <v>20.76</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G2" s="2">
         <v>742139.18</v>
@@ -2038,22 +2089,22 @@
         <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2074,19 +2125,19 @@
         <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2094,22 +2145,22 @@
         <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2117,22 +2168,22 @@
         <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2140,22 +2191,22 @@
         <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E4" s="2">
         <v>10000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2173,22 +2224,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2199,19 +2250,19 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E2" s="2">
         <v>14740000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉宜津_2013-11-08_財產申報表_tmpabd41.xlsx
+++ b/legislator/property/output/normal/葉宜津_2013-11-08_財產申報表_tmpabd41.xlsx
@@ -20,9 +20,177 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="145">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="149">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺中市霧峰區柳樹湳段01360000地號</t>
+  </si>
+  <si>
+    <t>臺中市霧峰區柳樹湳段01360003地號</t>
+  </si>
+  <si>
+    <t>臺北市中山區榮星段七小段00090007地號</t>
+  </si>
+  <si>
+    <t>臺南市新營區三星段01670000地號</t>
+  </si>
+  <si>
+    <t>臺南市永康區永仁段05310000地號</t>
+  </si>
+  <si>
+    <t>臺南市安平區金華段00580009地號</t>
+  </si>
+  <si>
+    <t>臺南市安平區金華段01680011地號</t>
+  </si>
+  <si>
+    <t>臺南市安平區金華段01680024地號</t>
+  </si>
+  <si>
+    <t>臺中巾北區—乾溝子段01820040地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段三小段03830004地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段三小段03830013地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段三小段03830014地號</t>
+  </si>
+  <si>
+    <t>parcel#547526139730001</t>
+  </si>
+  <si>
+    <t>5分之1</t>
+  </si>
+  <si>
+    <t>120000分之3750</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之117</t>
+  </si>
+  <si>
+    <t>2742分之20</t>
+  </si>
+  <si>
+    <t>10000分之396</t>
+  </si>
+  <si>
+    <t>葉宜津</t>
+  </si>
+  <si>
+    <t>趙哲宏</t>
+  </si>
+  <si>
+    <t>70年11月09日</t>
+  </si>
+  <si>
+    <t>88年03月25日</t>
+  </si>
+  <si>
+    <t>88年05月20日</t>
+  </si>
+  <si>
+    <t>84年08月31曰</t>
+  </si>
+  <si>
+    <t>82年07月21曰</t>
+  </si>
+  <si>
+    <t>86年08月16日</t>
+  </si>
+  <si>
+    <t>99年08月20日</t>
+  </si>
+  <si>
+    <t>102年05月31曰</t>
+  </si>
+  <si>
+    <t>月13曰</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>70300000(1®1314地號及建物總價）</t>
+  </si>
+  <si>
+    <t>70300000(與0414地號及建物總價）</t>
+  </si>
+  <si>
+    <t>70300000(100413地號及建物總價）</t>
+  </si>
+  <si>
+    <t>為美金此為與建物總價）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-11-08</t>
+  </si>
+  <si>
+    <t>tmpabd41</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,172 +211,55 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺中市霧峰區柳樹湳段 0136-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市霧峰區柳樹湳段 0136-0003 地號</t>
-  </si>
-  <si>
-    <t>臺北市中山區榮星段七小段 0009-0007 地號</t>
-  </si>
-  <si>
-    <t>臺南市新營區三星段0167 - 0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市永康區永仁段0531 -0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市安平區金華段0058-0009 地號</t>
-  </si>
-  <si>
-    <t>臺南市安平區金華段0168-0011 地號</t>
-  </si>
-  <si>
-    <t>臺南市安平區金華段0168-0024 地號</t>
-  </si>
-  <si>
-    <t>臺中巾北區—乾溝子段0182-0040 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段三小段 0383-0004 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段三小段 0383-0013 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段三小段 0383-0014 地號</t>
-  </si>
-  <si>
-    <t>parcel# 547526139730001</t>
-  </si>
-  <si>
-    <t>5分之1</t>
-  </si>
-  <si>
-    <t>120000 分 之 3750</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之 117</t>
-  </si>
-  <si>
-    <t>2742分之 20</t>
-  </si>
-  <si>
-    <t>10000分之 396</t>
-  </si>
-  <si>
-    <t>葉宜津</t>
-  </si>
-  <si>
-    <t>趙哲宏</t>
-  </si>
-  <si>
-    <t>70年11月 09日</t>
-  </si>
-  <si>
-    <t>88年03月 25日</t>
-  </si>
-  <si>
-    <t>88年05月 20日</t>
-  </si>
-  <si>
-    <t>84年08月 31曰</t>
-  </si>
-  <si>
-    <t>82年07月 21曰</t>
-  </si>
-  <si>
-    <t>86年08月 16日</t>
-  </si>
-  <si>
-    <t>99年08月 20日</t>
-  </si>
-  <si>
-    <t>102 年 05 月31曰</t>
-  </si>
-  <si>
-    <t>月13曰</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>70,300,000(1® 13、14地號及 建物總價）</t>
-  </si>
-  <si>
-    <t>70，300，000(與 04、14地號及 建物總價）</t>
-  </si>
-  <si>
-    <t>70,300,000(10 04、13地號及 建物總價）</t>
-  </si>
-  <si>
-    <t>為美金，此為與 建物總價）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市中山區榮星段七小段 01569-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區榮星段七小段 01579-000 建號</t>
-  </si>
-  <si>
-    <t>臺南市新營區三興段00097- 000 建號</t>
-  </si>
-  <si>
-    <t>臺南市永康區永仁段00426 - 000 建號</t>
-  </si>
-  <si>
-    <t>臺南市安平區金華段04976-000 建號</t>
-  </si>
-  <si>
-    <t>臺南市安平區金華段05058-000 建號</t>
-  </si>
-  <si>
-    <t>臺中市北區乾溝子段01340 - 000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段三小段 01768-000 建號</t>
-  </si>
-  <si>
-    <t>Palomino Dr., Allentown PA parcel# 547526139730001</t>
-  </si>
-  <si>
-    <t>120000 分 之 5650</t>
+    <t>臺北市中山區榮星段七小段01569000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區榮星段七小段01579000建號</t>
+  </si>
+  <si>
+    <t>臺南市新營區三興段00097000建號</t>
+  </si>
+  <si>
+    <t>臺南市永康區永仁段00426000建號</t>
+  </si>
+  <si>
+    <t>臺南市安平區金華段04976000建號</t>
+  </si>
+  <si>
+    <t>臺南市安平區金華段05058000建號</t>
+  </si>
+  <si>
+    <t>臺中市北區乾溝子段01340000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段三小段01768000建號</t>
+  </si>
+  <si>
+    <t>PalominoDr.AllentownPAparcel#547526139730001</t>
+  </si>
+  <si>
+    <t>120000分之5650</t>
   </si>
   <si>
     <t>86分之1</t>
   </si>
   <si>
-    <t>80年05月 20日</t>
-  </si>
-  <si>
-    <t>84年08月 31日</t>
-  </si>
-  <si>
-    <t>101 年 09 月13曰</t>
+    <t>80年05月20日</t>
+  </si>
+  <si>
+    <t>84年08月31日</t>
+  </si>
+  <si>
+    <t>101年09月13曰</t>
   </si>
   <si>
     <t>受贈.</t>
   </si>
   <si>
-    <t>70，300,000(與 土地總價額，面 積含附屬建物）</t>
-  </si>
-  <si>
-    <t>314,500(價額 為美金，此為與 土地總價）</t>
+    <t>70300000(與土地總價額面積含附屬建物）</t>
+  </si>
+  <si>
+    <t>314500(價額為美金此為與土地總價）</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -292,12 +343,6 @@
     <t>趙〇雅</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -310,27 +355,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>國票金控</t>
   </si>
   <si>
@@ -343,15 +367,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-11-08</t>
-  </si>
-  <si>
-    <t>tmpabd41</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -367,7 +382,7 @@
     <t>富達新興市場</t>
   </si>
   <si>
-    <t>財 產</t>
+    <t>財產</t>
   </si>
   <si>
     <t>種</t>
@@ -382,9 +397,6 @@
     <t>美金</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>件</t>
   </si>
   <si>
@@ -412,22 +424,22 @@
     <t>私人債務</t>
   </si>
   <si>
-    <t>華南商業銀行 臺南市新營區新進路2段 109號</t>
-  </si>
-  <si>
-    <t>華南銀行新營分行 臺南市新營區新進路2段 109號</t>
-  </si>
-  <si>
-    <t>葉光彰 臺北市松山區民生東路</t>
-  </si>
-  <si>
-    <t>40,000，000</t>
-  </si>
-  <si>
-    <t>102年06月 03日</t>
-  </si>
-  <si>
-    <t>100年04月 15日</t>
+    <t>華南商業銀行臺南市新營區新進路2段109號</t>
+  </si>
+  <si>
+    <t>華南銀行新營分行臺南市新營區新進路2段109號</t>
+  </si>
+  <si>
+    <t>葉光彰臺北市松山區民生東路</t>
+  </si>
+  <si>
+    <t>40000000</t>
+  </si>
+  <si>
+    <t>102年06月03日</t>
+  </si>
+  <si>
+    <t>100年04月15日</t>
   </si>
   <si>
     <t>借貸</t>
@@ -445,13 +457,13 @@
     <t>投資金額</t>
   </si>
   <si>
-    <t>美國Blackhawk Gold有限責 任公司</t>
-  </si>
-  <si>
-    <t>112N. Third Street McCall, Idaho 83638 112N. Third Street McCall, Idaho 83638</t>
-  </si>
-  <si>
-    <t>100年04月 26日</t>
+    <t>美國BlackhawkGold有限責任公司</t>
+  </si>
+  <si>
+    <t>112N.ThirdStreetMcCallIdaho83638112N.ThirdStreetMcCallIdaho83638</t>
+  </si>
+  <si>
+    <t>100年04月26日</t>
   </si>
   <si>
     <t>投資</t>
@@ -813,13 +825,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,343 +853,637 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1486</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2">
+        <v>855</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>5105</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2">
+        <v>855</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>685</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2">
+        <v>855</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="2">
+        <v>855</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>79.5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="2">
+        <v>855</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="2">
+        <v>855</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="2">
+        <v>855</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>282</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="2">
+        <v>855</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>1448</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H10" s="2">
         <v>462600</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="2">
+        <v>855</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>772</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="2">
+        <v>855</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="2">
+        <v>855</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="2">
+        <v>855</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="2">
         <v>25</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>1347.13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="2">
+        <v>855</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="2">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1195,25 +1501,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1221,25 +1527,25 @@
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2">
         <v>97.88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1247,25 +1553,25 @@
         <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2">
         <v>179.58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1273,25 +1579,25 @@
         <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2">
         <v>76.31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1299,25 +1605,25 @@
         <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2">
         <v>88.31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1325,25 +1631,25 @@
         <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2">
         <v>332.3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1351,25 +1657,25 @@
         <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2">
         <v>24.9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1377,22 +1683,22 @@
         <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2">
         <v>50.21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H8" s="2">
         <v>199900</v>
@@ -1403,25 +1709,25 @@
         <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2">
         <v>136.34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1429,25 +1735,25 @@
         <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2">
         <v>218.03</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1465,22 +1771,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1488,16 +1794,16 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1509,16 +1815,16 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1530,16 +1836,16 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1551,16 +1857,16 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1572,16 +1878,16 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1593,16 +1899,16 @@
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1614,16 +1920,16 @@
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1635,16 +1941,16 @@
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1656,16 +1962,16 @@
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1677,16 +1983,16 @@
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1698,16 +2004,16 @@
         <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1719,16 +2025,16 @@
         <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F13" s="2">
         <v>125037</v>
@@ -1742,16 +2048,16 @@
         <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1763,16 +2069,16 @@
         <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1784,16 +2090,16 @@
         <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1805,16 +2111,16 @@
         <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -1826,16 +2132,16 @@
         <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -1857,43 +2163,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1901,10 +2207,10 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
         <v>483</v>
@@ -1913,28 +2219,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="G2" s="2">
         <v>4830</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2">
         <v>855</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="N2" s="2">
         <v>90</v>
@@ -1945,10 +2251,10 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
         <v>90000</v>
@@ -1957,28 +2263,28 @@
         <v>3.53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="G3" s="2">
         <v>1220856.78</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2">
         <v>855</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="N3" s="2">
         <v>91</v>
@@ -1989,10 +2295,10 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2">
         <v>4000</v>
@@ -2001,28 +2307,28 @@
         <v>13.81</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="G4" s="2">
         <v>211837.7</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L4" s="2">
         <v>855</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="N4" s="2">
         <v>92</v>
@@ -2043,22 +2349,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2066,10 +2372,10 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
         <v>1192.81</v>
@@ -2078,7 +2384,7 @@
         <v>20.76</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G2" s="2">
         <v>742139.18</v>
@@ -2089,22 +2395,20 @@
         <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>120</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2122,22 +2426,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2145,22 +2449,22 @@
         <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2168,22 +2472,22 @@
         <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2191,22 +2495,22 @@
         <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E4" s="2">
         <v>10000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2224,22 +2528,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2247,22 +2551,22 @@
         <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2">
         <v>14740000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉宜津_2013-11-08_財產申報表_tmpabd41.xlsx
+++ b/legislator/property/output/normal/葉宜津_2013-11-08_財產申報表_tmpabd41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="122">
   <si>
     <t>name</t>
   </si>
@@ -64,7 +64,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺中市霧峰區柳樹湳段01360000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺中市霧峰區柳樹湳段01360003地號</t>
@@ -190,27 +193,6 @@
     <t>tmpabd41</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺北市中山區榮星段七小段01569000建號</t>
   </si>
   <si>
@@ -262,27 +244,15 @@
     <t>314500(價額為美金此為與土地總價）</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣土地銀行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>彰化商業銀行</t>
   </si>
   <si>
@@ -313,9 +283,6 @@
     <t>華南商業銀行新營分行</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>中華郵政存簿儲金</t>
   </si>
   <si>
@@ -328,9 +295,6 @@
     <t>定期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>港幣</t>
   </si>
   <si>
@@ -352,12 +316,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>國票金控</t>
-  </si>
-  <si>
     <t>台泥國際(香港）</t>
   </si>
   <si>
@@ -367,21 +325,12 @@
     <t>stock</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>富達新興市場</t>
   </si>
   <si>
+    <t>美金</t>
+  </si>
+  <si>
     <t>財產</t>
   </si>
   <si>
@@ -394,67 +343,37 @@
     <t>項</t>
   </si>
   <si>
-    <t>美金</t>
-  </si>
-  <si>
     <t>件</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>華南商業銀行臺南市新營區新進路2段109號</t>
+  </si>
+  <si>
+    <t>40000000</t>
+  </si>
+  <si>
+    <t>102年06月03日</t>
+  </si>
+  <si>
+    <t>借貸</t>
+  </si>
+  <si>
     <t>長期擔保貸款</t>
   </si>
   <si>
     <t>私人債務</t>
   </si>
   <si>
-    <t>華南商業銀行臺南市新營區新進路2段109號</t>
-  </si>
-  <si>
     <t>華南銀行新營分行臺南市新營區新進路2段109號</t>
   </si>
   <si>
     <t>葉光彰臺北市松山區民生東路</t>
   </si>
   <si>
-    <t>40000000</t>
-  </si>
-  <si>
-    <t>102年06月03日</t>
-  </si>
-  <si>
     <t>100年04月15日</t>
-  </si>
-  <si>
-    <t>借貸</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
   </si>
   <si>
     <t>美國BlackhawkGold有限責任公司</t>
@@ -825,13 +744,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -874,616 +793,647 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1486</v>
+        <v>5105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M2" s="2">
         <v>855</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>685</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5105</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3" s="2">
         <v>855</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.03125</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>21.40625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>685</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M4" s="2">
         <v>855</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>45</v>
+        <v>79.5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M5" s="2">
         <v>855</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="2">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>93</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>79.5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6" s="2">
         <v>855</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="2">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>77</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2">
-        <v>93</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M7" s="2">
         <v>855</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="2">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>282</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2">
-        <v>77</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M8" s="2">
         <v>855</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="2">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.0117</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>3.2994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1448</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="2">
+        <v>462600</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2">
-        <v>282</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M9" s="2">
         <v>855</v>
       </c>
       <c r="N9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="2">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.00729394602479942</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>10.5616338439096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2">
+        <v>772</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1448</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="2">
-        <v>462600</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="L10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M10" s="2">
         <v>855</v>
       </c>
       <c r="N10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="2">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.0396</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>30.5712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2">
-        <v>772</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="L11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M11" s="2">
         <v>855</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="2">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.0396</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.7128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="L12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M12" s="2">
         <v>855</v>
       </c>
       <c r="N12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="2">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.0396</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.1584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1347.13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M13" s="2">
         <v>855</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1">
         <v>28</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
         <v>1347.13</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="2">
-        <v>855</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" s="2">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1493,7 +1443,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1501,259 +1451,233 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C1" s="1">
+        <v>97.88</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2">
-        <v>97.88</v>
+        <v>179.58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2">
-        <v>179.58</v>
+        <v>76.31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2">
-        <v>76.31</v>
+        <v>88.31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2">
-        <v>88.31</v>
+        <v>332.3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="2">
+        <v>24.9</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="2">
-        <v>332.3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2">
-        <v>24.9</v>
+        <v>50.21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="H7" s="2">
+        <v>199900</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2">
-        <v>50.21</v>
+        <v>136.34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="2">
-        <v>199900</v>
+        <v>46</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="2">
+        <v>218.03</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="2">
-        <v>136.34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>41</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="2">
-        <v>218.03</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1763,7 +1687,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1771,380 +1695,357 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>34</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>124404</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>124404</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>4874</v>
+        <v>15896</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>15896</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>12</v>
+        <v>1420102</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>1420102</v>
+        <v>391966</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>391966</v>
+        <v>50821</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>50821</v>
+        <v>428610</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>428610</v>
+        <v>109101</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>109101</v>
+        <v>104778</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
+        <v>77</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>104778</v>
+        <v>228003</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="F12" s="2">
+        <v>125037</v>
+      </c>
       <c r="G12" s="2">
-        <v>228003</v>
+        <v>479391.85</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="2">
-        <v>125037</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>479391.85</v>
+        <v>83084</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>83084</v>
+        <v>526996</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
+        <v>81</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>526996</v>
+        <v>522673</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>522673</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>83</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
         <v>131506</v>
       </c>
     </row>
@@ -2155,7 +2056,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2169,16 +2070,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -2204,133 +2105,89 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2">
-        <v>483</v>
+        <v>90000</v>
       </c>
       <c r="E2" s="2">
-        <v>10</v>
+        <v>3.53</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G2" s="2">
-        <v>4830</v>
+        <v>1220856.78</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L2" s="2">
         <v>855</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N2" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>13.81</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="2">
-        <v>90000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3.53</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="G3" s="2">
-        <v>1220856.78</v>
+        <v>211837.7</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2">
         <v>855</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>92</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>13.81</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="2">
-        <v>211837.7</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="2">
-        <v>855</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="2">
         <v>92</v>
       </c>
     </row>
@@ -2340,6 +2197,60 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1192.81</v>
+      </c>
+      <c r="E1" s="1">
+        <v>20.76</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="1">
+        <v>742139.18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>113</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -2349,168 +2260,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1192.81</v>
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="E2" s="2">
-        <v>20.76</v>
+        <v>1000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="2">
-        <v>742139.18</v>
+        <v>117</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>129</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>130</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>131</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2520,53 +2331,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
+      </c>
+      <c r="E1" s="1">
+        <v>14740000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>136</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="2">
-        <v>14740000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉宜津_2013-11-08_財產申報表_tmpabd41.xlsx
+++ b/legislator/property/output/normal/葉宜津_2013-11-08_財產申報表_tmpabd41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="124">
   <si>
     <t>name</t>
   </si>
@@ -70,6 +70,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺中市霧峰區柳樹湳段01360000地號</t>
+  </si>
+  <si>
     <t>臺中市霧峰區柳樹湳段01360003地號</t>
   </si>
   <si>
@@ -314,6 +317,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>國票金控</t>
   </si>
   <si>
     <t>台泥國際(香港）</t>
@@ -744,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -802,72 +808,72 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>5105</v>
+        <v>1486</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M2" s="2">
         <v>855</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>0.2</v>
       </c>
       <c r="Q2" s="2">
-        <v>1021</v>
+        <v>297.2</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>685</v>
+        <v>5105</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>37</v>
@@ -876,45 +882,45 @@
         <v>46</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M3" s="2">
         <v>855</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.03125</v>
+        <v>0.2</v>
       </c>
       <c r="Q3" s="2">
-        <v>21.40625</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>45</v>
+        <v>685</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
@@ -929,472 +935,472 @@
         <v>47</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M4" s="2">
         <v>855</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0.03125</v>
       </c>
       <c r="Q4" s="2">
-        <v>45</v>
+        <v>21.40625</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>79.5</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M5" s="2">
         <v>855</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>79.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>93</v>
+        <v>79.5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="2">
         <v>855</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>93</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" s="2">
         <v>855</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
       </c>
       <c r="Q7" s="2">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M8" s="2">
         <v>855</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
-        <v>0.0117</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
-        <v>3.2994</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>1448</v>
+        <v>282</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="2">
-        <v>462600</v>
+        <v>47</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M9" s="2">
         <v>855</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
-        <v>0.00729394602479942</v>
+        <v>0.0117</v>
       </c>
       <c r="Q9" s="2">
-        <v>10.5616338439096</v>
+        <v>3.2994</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>772</v>
+        <v>1448</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="H10" s="2">
+        <v>462600</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M10" s="2">
         <v>855</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
-        <v>0.0396</v>
+        <v>0.00729394602479942</v>
       </c>
       <c r="Q10" s="2">
-        <v>30.5712</v>
+        <v>10.5616338439096</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>18</v>
+        <v>772</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>50</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M11" s="2">
         <v>855</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
         <v>0.0396</v>
       </c>
       <c r="Q11" s="2">
-        <v>0.7128</v>
+        <v>30.5712</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>51</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M12" s="2">
         <v>855</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
         <v>0.0396</v>
       </c>
       <c r="Q12" s="2">
-        <v>0.1584</v>
+        <v>0.7128</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>1347.13</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>35</v>
@@ -1403,36 +1409,89 @@
         <v>44</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M13" s="2">
         <v>855</v>
       </c>
       <c r="N13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.0396</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0.1584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1347.13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O13" s="2">
+      <c r="L14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="2">
+        <v>855</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="2">
         <v>28</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P14" s="2">
         <v>1</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q14" s="2">
         <v>1347.13</v>
       </c>
     </row>
@@ -1443,241 +1502,537 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1">
-        <v>97.88</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="2">
-        <v>179.58</v>
+        <v>97.88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2">
+        <v>855</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="2">
+        <v>33</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>97.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>34</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="2">
-        <v>76.31</v>
+        <v>179.58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="2">
+        <v>855</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="2">
+        <v>34</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0470833333333333</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>8.455225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C4" s="2">
-        <v>88.31</v>
+        <v>76.31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>69</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="2">
+        <v>855</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="2">
+        <v>35</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>76.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="2">
-        <v>332.3</v>
+        <v>88.31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="2">
+        <v>855</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="2">
+        <v>36</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>88.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C6" s="2">
-        <v>24.9</v>
+        <v>332.3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2">
+        <v>855</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="2">
+        <v>37</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>332.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="2">
-        <v>50.21</v>
+        <v>24.9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="2">
-        <v>199900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="2">
+        <v>855</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="2">
+        <v>38</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.0116279069767442</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.28953488372093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="2">
-        <v>136.34</v>
+        <v>50.21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="H8" s="2">
+        <v>199900</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="2">
+        <v>855</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="2">
+        <v>39</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>50.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C9" s="2">
-        <v>218.03</v>
+        <v>136.34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>73</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="2">
+        <v>855</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="2">
+        <v>40</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>136.34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2">
+        <v>218.03</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="2">
+        <v>855</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="2">
+        <v>41</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>218.03</v>
       </c>
     </row>
   </sheetData>
@@ -1687,7 +2042,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1695,16 +2050,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1713,339 +2068,360 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>4874</v>
+        <v>124404</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>15896</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>12</v>
+        <v>15896</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>1420102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>391966</v>
+        <v>1420102</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>50821</v>
+        <v>391966</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>428610</v>
+        <v>50821</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>109101</v>
+        <v>428610</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>104778</v>
+        <v>109101</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
+        <v>76</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>228003</v>
+        <v>104778</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="2">
-        <v>125037</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>479391.85</v>
+        <v>228003</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="F13" s="2">
+        <v>125037</v>
+      </c>
       <c r="G13" s="2">
-        <v>83084</v>
+        <v>479391.85</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>526996</v>
+        <v>83084</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
+        <v>80</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>522673</v>
+        <v>526996</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>1936</v>
+        <v>522673</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>83</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
         <v>131506</v>
       </c>
     </row>
@@ -2056,7 +2432,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2070,13 +2446,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2105,89 +2481,133 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2">
-        <v>90000</v>
+        <v>483</v>
       </c>
       <c r="E2" s="2">
-        <v>3.53</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="G2" s="2">
-        <v>1220856.78</v>
+        <v>4830</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" s="2">
         <v>855</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N2" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
+        <v>91</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2">
+        <v>90000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3.53</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="2">
-        <v>4000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>13.81</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="G3" s="2">
-        <v>211837.7</v>
+        <v>1220856.78</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" s="2">
         <v>855</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>92</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>13.81</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="2">
+        <v>211837.7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="2">
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2">
+        <v>855</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="2">
         <v>92</v>
       </c>
     </row>
@@ -2197,6 +2617,185 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1192.81</v>
+      </c>
+      <c r="E1" s="1">
+        <v>20.76</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="1">
+        <v>742139.18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1192.81</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20.76</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="2">
+        <v>742139.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>113</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>129</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>130</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>131</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2206,155 +2805,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1192.81</v>
+        <v>120</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="E1" s="1">
-        <v>20.76</v>
+        <v>14740000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="1">
-        <v>742139.18</v>
+        <v>122</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="E2" s="2">
+        <v>14740000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>130</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>131</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="1">
-        <v>14740000</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉宜津_2013-11-08_財產申報表_tmpabd41.xlsx
+++ b/legislator/property/output/normal/葉宜津_2013-11-08_財產申報表_tmpabd41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="125">
   <si>
     <t>name</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>314500(價額為美金此為與土地總價）</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>臺灣土地銀行</t>
@@ -1584,7 +1587,7 @@
         <v>49</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>55</v>
@@ -1637,7 +1640,7 @@
         <v>49</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>55</v>
@@ -1690,7 +1693,7 @@
         <v>49</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>55</v>
@@ -1743,7 +1746,7 @@
         <v>49</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>55</v>
@@ -1796,7 +1799,7 @@
         <v>49</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>55</v>
@@ -1849,7 +1852,7 @@
         <v>49</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>55</v>
@@ -1902,7 +1905,7 @@
         <v>199900</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>55</v>
@@ -1955,7 +1958,7 @@
         <v>73</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>55</v>
@@ -2008,7 +2011,7 @@
         <v>74</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>55</v>
@@ -2050,13 +2053,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>35</v>
@@ -2071,13 +2074,13 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>35</v>
@@ -2092,13 +2095,13 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>35</v>
@@ -2113,13 +2116,13 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>35</v>
@@ -2134,13 +2137,13 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>35</v>
@@ -2155,13 +2158,13 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>35</v>
@@ -2176,13 +2179,13 @@
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>35</v>
@@ -2197,13 +2200,13 @@
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>36</v>
@@ -2218,13 +2221,13 @@
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>36</v>
@@ -2239,13 +2242,13 @@
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>36</v>
@@ -2260,13 +2263,13 @@
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>36</v>
@@ -2281,13 +2284,13 @@
         <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>36</v>
@@ -2302,13 +2305,13 @@
         <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>36</v>
@@ -2325,16 +2328,16 @@
         <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -2346,16 +2349,16 @@
         <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -2367,16 +2370,16 @@
         <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -2388,13 +2391,13 @@
         <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>36</v>
@@ -2409,13 +2412,13 @@
         <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>36</v>
@@ -2446,13 +2449,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2484,7 +2487,7 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>36</v>
@@ -2496,13 +2499,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2">
         <v>4830</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>55</v>
@@ -2528,7 +2531,7 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>36</v>
@@ -2540,13 +2543,13 @@
         <v>3.53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G3" s="2">
         <v>1220856.78</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>55</v>
@@ -2572,7 +2575,7 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>36</v>
@@ -2584,13 +2587,13 @@
         <v>13.81</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G4" s="2">
         <v>211837.7</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>55</v>
@@ -2626,7 +2629,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>36</v>
@@ -2638,7 +2641,7 @@
         <v>20.76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1">
         <v>742139.18</v>
@@ -2649,7 +2652,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>36</v>
@@ -2661,7 +2664,7 @@
         <v>20.76</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G2" s="2">
         <v>742139.18</v>
@@ -2672,20 +2675,20 @@
         <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2703,22 +2706,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2726,22 +2729,22 @@
         <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2749,22 +2752,22 @@
         <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2772,22 +2775,22 @@
         <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E4" s="2">
         <v>10000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2808,19 +2811,19 @@
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1">
         <v>14740000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2831,19 +2834,19 @@
         <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E2" s="2">
         <v>14740000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉宜津_2013-11-08_財產申報表_tmpabd41.xlsx
+++ b/legislator/property/output/normal/葉宜津_2013-11-08_財產申報表_tmpabd41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="128">
   <si>
     <t>name</t>
   </si>
@@ -250,57 +250,66 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣土地銀行</t>
   </si>
   <si>
+    <t>彰化商業銀行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行</t>
+  </si>
+  <si>
+    <t>華南商業銀行</t>
+  </si>
+  <si>
+    <t>台南郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行</t>
+  </si>
+  <si>
+    <t>曰盛國際商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行北台南分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行新營分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>中華郵政存簿儲金</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>外幣存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>彰化商業銀行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行</t>
-  </si>
-  <si>
-    <t>華南商業銀行</t>
-  </si>
-  <si>
-    <t>台南郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行</t>
-  </si>
-  <si>
-    <t>曰盛國際商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行北台南分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行新營分行</t>
-  </si>
-  <si>
-    <t>中華郵政存簿儲金</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>外幣存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>港幣</t>
   </si>
   <si>
@@ -313,13 +322,13 @@
     <t>趙〇雅</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>國票金控</t>
@@ -2045,13 +2054,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
@@ -2062,370 +2071,728 @@
         <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>124404</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>124404</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2">
+        <v>855</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>4874</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2">
+        <v>855</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>15896</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2">
+        <v>855</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2">
+        <v>855</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>1420102</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2">
+        <v>855</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>391966</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="2">
+        <v>855</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>50821</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="2">
+        <v>855</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>428610</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="2">
+        <v>855</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>109101</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="2">
+        <v>855</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>104778</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="2">
+        <v>855</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>228003</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="2">
+        <v>855</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F13" s="2">
-        <v>125037</v>
-      </c>
-      <c r="G13" s="2">
         <v>479391.85</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="2">
+        <v>855</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+        <v>97</v>
+      </c>
+      <c r="F14" s="2">
         <v>83084</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="2">
+        <v>855</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+        <v>98</v>
+      </c>
+      <c r="F15" s="2">
         <v>526996</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="2">
+        <v>855</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+        <v>99</v>
+      </c>
+      <c r="F16" s="2">
         <v>522673</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="2">
+        <v>855</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>1936</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="2">
+        <v>855</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>131506</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="2">
+        <v>855</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" s="2">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2449,13 +2816,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2487,7 +2854,7 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>36</v>
@@ -2499,13 +2866,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2">
         <v>4830</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>55</v>
@@ -2531,7 +2898,7 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>36</v>
@@ -2543,13 +2910,13 @@
         <v>3.53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2">
         <v>1220856.78</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>55</v>
@@ -2575,7 +2942,7 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>36</v>
@@ -2587,13 +2954,13 @@
         <v>13.81</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G4" s="2">
         <v>211837.7</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>55</v>
@@ -2629,7 +2996,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>36</v>
@@ -2641,7 +3008,7 @@
         <v>20.76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1">
         <v>742139.18</v>
@@ -2652,7 +3019,7 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>36</v>
@@ -2664,7 +3031,7 @@
         <v>20.76</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2">
         <v>742139.18</v>
@@ -2675,20 +3042,20 @@
         <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2706,22 +3073,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2729,22 +3096,22 @@
         <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2752,22 +3119,22 @@
         <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2775,22 +3142,22 @@
         <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E4" s="2">
         <v>10000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2811,19 +3178,19 @@
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1">
         <v>14740000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2834,19 +3201,19 @@
         <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E2" s="2">
         <v>14740000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉宜津_2013-11-08_財產申報表_tmpabd41.xlsx
+++ b/legislator/property/output/normal/葉宜津_2013-11-08_財產申報表_tmpabd41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="124">
   <si>
     <t>name</t>
   </si>
@@ -349,19 +349,7 @@
     <t>美金</t>
   </si>
   <si>
-    <t>財產</t>
-  </si>
-  <si>
-    <t>種</t>
-  </si>
-  <si>
-    <t>類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -2988,33 +2976,54 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1192.81</v>
-      </c>
-      <c r="E1" s="1">
-        <v>20.76</v>
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="1">
-        <v>742139.18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>109</v>
       </c>
@@ -3025,7 +3034,7 @@
         <v>36</v>
       </c>
       <c r="D2" s="2">
-        <v>1192.81</v>
+        <v>1192</v>
       </c>
       <c r="E2" s="2">
         <v>20.76</v>
@@ -3036,26 +3045,26 @@
       <c r="G2" s="2">
         <v>742139.18</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>113</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>113</v>
+      <c r="I2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2">
+        <v>855</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="2">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3073,22 +3082,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3096,22 +3105,22 @@
         <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3119,22 +3128,22 @@
         <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3142,22 +3151,22 @@
         <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E4" s="2">
         <v>10000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3178,19 +3187,19 @@
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1">
         <v>14740000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3201,19 +3210,19 @@
         <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E2" s="2">
         <v>14740000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/葉宜津_2013-11-08_財產申報表_tmpabd41.xlsx
+++ b/legislator/property/output/normal/葉宜津_2013-11-08_財產申報表_tmpabd41.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="129">
   <si>
     <t>name</t>
   </si>
@@ -352,34 +352,46 @@
     <t>otherbonds</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>長期擔保貸款</t>
+  </si>
+  <si>
+    <t>私人債務</t>
+  </si>
+  <si>
     <t>華南商業銀行臺南市新營區新進路2段109號</t>
   </si>
   <si>
-    <t>40000000</t>
+    <t>華南銀行新營分行臺南市新營區新進路2段109號</t>
+  </si>
+  <si>
+    <t>葉光彰臺北市松山區民生東路</t>
   </si>
   <si>
     <t>102年06月03日</t>
   </si>
   <si>
+    <t>100年04月15日</t>
+  </si>
+  <si>
     <t>借貸</t>
   </si>
   <si>
-    <t>長期擔保貸款</t>
-  </si>
-  <si>
-    <t>私人債務</t>
-  </si>
-  <si>
-    <t>華南銀行新營分行臺南市新營區新進路2段109號</t>
-  </si>
-  <si>
-    <t>葉光彰臺北市松山區民生東路</t>
-  </si>
-  <si>
-    <t>100年04月15日</t>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
   <si>
     <t>美國BlackhawkGold有限責任公司</t>
@@ -392,6 +404,9 @@
   </si>
   <si>
     <t>投資</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -3074,67 +3089,109 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="E2" s="2">
+        <v>40000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>120</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2">
+        <v>855</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
@@ -3143,30 +3200,72 @@
         <v>119</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>120</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2">
+        <v>855</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2">
         <v>10000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2">
+        <v>855</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="2">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3176,33 +3275,54 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="1">
-        <v>14740000</v>
+        <v>123</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>136</v>
       </c>
@@ -3210,19 +3330,40 @@
         <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E2" s="2">
         <v>14740000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2">
+        <v>855</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="2">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
